--- a/results/mp31_2022.xlsx
+++ b/results/mp31_2022.xlsx
@@ -358,7 +358,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -455,7 +455,9 @@
       <c r="B4" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
@@ -566,7 +568,9 @@
       <c r="B11" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="10"/>
+      <c r="C11" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
@@ -583,7 +587,9 @@
       <c r="B12" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="10"/>
+      <c r="C12" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
@@ -631,7 +637,9 @@
       <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="9"/>
+      <c r="B15" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
@@ -678,7 +686,9 @@
       <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="9"/>
+      <c r="B18" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
@@ -712,7 +722,9 @@
       <c r="A20" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="9"/>
+      <c r="B20" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
@@ -733,7 +745,9 @@
       <c r="C21" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="D21" s="10"/>
+      <c r="D21" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="11"/>
@@ -749,7 +763,9 @@
       <c r="B22" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="C22" s="10"/>
+      <c r="C22" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
@@ -763,7 +779,9 @@
       <c r="A23" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="9"/>
+      <c r="B23" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>

--- a/results/mp31_2022.xlsx
+++ b/results/mp31_2022.xlsx
@@ -358,7 +358,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -458,7 +458,9 @@
       <c r="C4" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="11"/>
@@ -551,7 +553,9 @@
       <c r="B10" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="C10" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -571,7 +575,9 @@
       <c r="C11" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="10"/>
+      <c r="D11" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="11"/>
@@ -590,7 +596,9 @@
       <c r="C12" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="D12" s="10"/>
+      <c r="D12" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="11"/>
@@ -624,7 +632,9 @@
       <c r="C14" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="11"/>
@@ -640,7 +650,9 @@
       <c r="B15" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="10"/>
+      <c r="C15" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -689,7 +701,9 @@
       <c r="B18" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="C18" s="10"/>
+      <c r="C18" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
@@ -709,7 +723,9 @@
       <c r="C19" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="D19" s="10"/>
+      <c r="D19" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="11"/>
@@ -725,7 +741,9 @@
       <c r="B20" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="C20" s="10"/>
+      <c r="C20" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
@@ -782,7 +800,9 @@
       <c r="B23" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="C23" s="10"/>
+      <c r="C23" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>

--- a/results/mp31_2022.xlsx
+++ b/results/mp31_2022.xlsx
@@ -130,7 +130,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -161,57 +161,8 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="hair"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="hair"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right/>
-      <top style="hair"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="hair"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
       <right style="hair"/>
       <top style="hair"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right/>
-      <top/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="hair"/>
-      <top/>
       <bottom style="hair"/>
       <diagonal/>
     </border>
@@ -241,7 +192,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -274,7 +225,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -282,59 +233,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -357,8 +256,8 @@
   </sheetPr>
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -389,13 +288,13 @@
       <c r="G1" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="n">
+      <c r="H1" s="3" t="n">
         <v>7</v>
       </c>
       <c r="I1" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="n">
+      <c r="J1" s="7" t="n">
         <v>9</v>
       </c>
       <c r="K1" s="6" t="n">
@@ -418,18 +317,26 @@
       <c r="B2" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="14"/>
+      <c r="C2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
@@ -438,15 +345,18 @@
       <c r="B3" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
       <c r="H3" s="9"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="17"/>
-      <c r="N3" s="16"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
@@ -455,34 +365,52 @@
       <c r="B4" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="9"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="17"/>
-      <c r="N4" s="16"/>
+      <c r="C4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
       <c r="H5" s="9"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="17"/>
-      <c r="N5" s="16"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
@@ -491,60 +419,72 @@
       <c r="B6" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
       <c r="H6" s="9"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="17"/>
-      <c r="N6" s="16"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
       <c r="H7" s="9"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="17"/>
-      <c r="N7" s="16"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
       <c r="H8" s="9"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="17"/>
-      <c r="N8" s="16"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
       <c r="H9" s="9"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="17"/>
-      <c r="N9" s="16"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
@@ -553,17 +493,28 @@
       <c r="B10" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
+      <c r="C10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="H10" s="9"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="17"/>
-      <c r="N10" s="16"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
@@ -572,19 +523,32 @@
       <c r="B11" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="9"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="17"/>
-      <c r="N11" s="16"/>
+      <c r="C11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
@@ -593,34 +557,46 @@
       <c r="B12" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11"/>
+      <c r="C12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="H12" s="9"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="17"/>
-      <c r="N12" s="16"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="11"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
       <c r="H13" s="9"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="17"/>
-      <c r="N13" s="16"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
@@ -629,19 +605,28 @@
       <c r="B14" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="C14" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="11"/>
+      <c r="C14" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="H14" s="9"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="17"/>
-      <c r="N14" s="16"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
@@ -650,17 +635,28 @@
       <c r="B15" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
+      <c r="C15" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="H15" s="9"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="17"/>
-      <c r="N15" s="16"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
@@ -669,30 +665,36 @@
       <c r="B16" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="11"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
       <c r="H16" s="9"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="17"/>
-      <c r="N16" s="16"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="11"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
       <c r="H17" s="9"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="17"/>
-      <c r="N17" s="16"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
@@ -701,17 +703,28 @@
       <c r="B18" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="C18" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="11"/>
+      <c r="C18" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="H18" s="9"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="17"/>
-      <c r="N18" s="16"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
@@ -720,19 +733,34 @@
       <c r="B19" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="C19" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="9"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="17"/>
-      <c r="N19" s="16"/>
+      <c r="C19" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
@@ -741,17 +769,32 @@
       <c r="B20" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="C20" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="9"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="17"/>
-      <c r="N20" s="16"/>
+      <c r="C20" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
@@ -760,19 +803,28 @@
       <c r="B21" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="C21" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="11"/>
+      <c r="C21" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="H21" s="9"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="17"/>
-      <c r="N21" s="16"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
@@ -781,17 +833,28 @@
       <c r="B22" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="C22" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="11"/>
+      <c r="C22" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="H22" s="9"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="17"/>
-      <c r="N22" s="16"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
@@ -800,40 +863,49 @@
       <c r="B23" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="C23" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="11"/>
+      <c r="C23" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="9"/>
       <c r="H23" s="9"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="17"/>
-      <c r="N23" s="16"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="22"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="68" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/results/mp31_2022.xlsx
+++ b/results/mp31_2022.xlsx
@@ -781,15 +781,9 @@
       <c r="F20" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="G20" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="10" t="n">
-        <v>1</v>
-      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="10"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>

--- a/results/mp31_2022.xlsx
+++ b/results/mp31_2022.xlsx
@@ -257,7 +257,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
+      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -329,9 +329,15 @@
       <c r="F2" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="10"/>
+      <c r="G2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
@@ -345,8 +351,12 @@
       <c r="B3" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
+      <c r="C3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
@@ -389,10 +399,18 @@
       <c r="J4" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
+      <c r="K4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
@@ -508,8 +526,12 @@
       <c r="G10" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="10"/>
+      <c r="H10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
@@ -544,7 +566,9 @@
       <c r="I11" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="J11" s="10"/>
+      <c r="J11" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
@@ -572,9 +596,15 @@
       <c r="G12" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
+      <c r="H12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
@@ -620,8 +650,12 @@
       <c r="G14" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="10"/>
+      <c r="H14" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
@@ -650,8 +684,12 @@
       <c r="G15" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="10"/>
+      <c r="H15" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
@@ -718,8 +756,12 @@
       <c r="G18" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="10"/>
+      <c r="H18" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
@@ -757,7 +799,9 @@
       <c r="J19" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="K19" s="10"/>
+      <c r="K19" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
@@ -781,8 +825,12 @@
       <c r="F20" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
+      <c r="G20" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
@@ -812,9 +860,15 @@
       <c r="G21" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
+      <c r="H21" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
@@ -842,8 +896,12 @@
       <c r="G22" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="H22" s="9"/>
-      <c r="I22" s="10"/>
+      <c r="H22" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
@@ -869,10 +927,18 @@
       <c r="F23" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
+      <c r="G23" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>

--- a/results/mp31_2022.xlsx
+++ b/results/mp31_2022.xlsx
@@ -257,7 +257,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
+      <selection pane="topLeft" activeCell="M12" activeCellId="0" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -338,7 +338,9 @@
       <c r="I2" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="J2" s="10"/>
+      <c r="J2" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
@@ -357,11 +359,21 @@
       <c r="D3" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="10"/>
+      <c r="E3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
@@ -532,9 +544,15 @@
       <c r="I10" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
+      <c r="J10" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
     </row>
@@ -569,9 +587,15 @@
       <c r="J11" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
+      <c r="K11" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="N11" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -605,9 +629,15 @@
       <c r="J12" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
+      <c r="K12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="N12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -656,8 +686,12 @@
       <c r="I14" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
+      <c r="J14" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
@@ -690,7 +724,9 @@
       <c r="I15" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="J15" s="10"/>
+      <c r="J15" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
@@ -802,9 +838,15 @@
       <c r="K19" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
+      <c r="L19" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" s="10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
@@ -831,8 +873,12 @@
       <c r="H20" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
+      <c r="I20" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
@@ -869,10 +915,18 @@
       <c r="J21" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
+      <c r="K21" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" s="10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
@@ -902,8 +956,12 @@
       <c r="I22" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
+      <c r="J22" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
@@ -939,7 +997,9 @@
       <c r="J23" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="K23" s="10"/>
+      <c r="K23" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
       <c r="N23" s="10"/>

--- a/results/mp31_2022.xlsx
+++ b/results/mp31_2022.xlsx
@@ -257,7 +257,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M12" activeCellId="0" sqref="M12"/>
+      <selection pane="topLeft" activeCell="L15" activeCellId="0" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -341,8 +341,12 @@
       <c r="J2" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
+      <c r="K2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
     </row>
@@ -374,7 +378,9 @@
       <c r="I3" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="J3" s="10"/>
+      <c r="J3" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
@@ -692,9 +698,15 @@
       <c r="K14" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
+      <c r="L14" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" s="10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
@@ -727,8 +739,12 @@
       <c r="J15" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
+      <c r="K15" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
     </row>
@@ -879,8 +895,12 @@
       <c r="J20" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
+      <c r="K20" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="M20" s="10"/>
       <c r="N20" s="10"/>
     </row>
@@ -1000,8 +1020,12 @@
       <c r="K23" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
+      <c r="L23" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="N23" s="10"/>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/results/mp31_2022.xlsx
+++ b/results/mp31_2022.xlsx
@@ -257,7 +257,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L15" activeCellId="0" sqref="L15"/>
+      <selection pane="topLeft" activeCell="N20" activeCellId="0" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -347,8 +347,12 @@
       <c r="L2" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
+      <c r="M2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" s="10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
@@ -381,8 +385,12 @@
       <c r="J3" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
+      <c r="K3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
     </row>
@@ -455,9 +463,15 @@
       <c r="B6" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="C6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
@@ -559,8 +573,12 @@
       <c r="L10" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
+      <c r="M10" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" s="10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
@@ -602,7 +620,9 @@
       <c r="M11" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="N11" s="10"/>
+      <c r="N11" s="10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
@@ -644,7 +664,9 @@
       <c r="M12" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="N12" s="10"/>
+      <c r="N12" s="10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
@@ -745,7 +767,9 @@
       <c r="L15" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="M15" s="10"/>
+      <c r="M15" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="N15" s="10"/>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -901,7 +925,9 @@
       <c r="L20" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="M20" s="10"/>
+      <c r="M20" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="N20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -982,9 +1008,15 @@
       <c r="K22" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
+      <c r="L22" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" s="10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
@@ -1026,7 +1058,9 @@
       <c r="M23" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="N23" s="10"/>
+      <c r="N23" s="10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">

--- a/results/mp31_2022.xlsx
+++ b/results/mp31_2022.xlsx
@@ -257,7 +257,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N20" activeCellId="0" sqref="N20"/>
+      <selection pane="topLeft" activeCell="N15" activeCellId="0" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -391,7 +391,9 @@
       <c r="L3" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="M3" s="10"/>
+      <c r="M3" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="N3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -770,7 +772,9 @@
       <c r="M15" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="N15" s="10"/>
+      <c r="N15" s="10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">

--- a/results/mp31_2022.xlsx
+++ b/results/mp31_2022.xlsx
@@ -257,7 +257,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N15" activeCellId="0" sqref="N15"/>
+      <selection pane="topLeft" activeCell="L6" activeCellId="0" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -474,13 +474,27 @@
       <c r="E6" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
+      <c r="F6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
     </row>

--- a/results/mp31_2022.xlsx
+++ b/results/mp31_2022.xlsx
@@ -257,7 +257,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L6" activeCellId="0" sqref="L6"/>
+      <selection pane="topLeft" activeCell="N6" activeCellId="0" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -394,7 +394,9 @@
       <c r="M3" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="N3" s="10"/>
+      <c r="N3" s="10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
@@ -495,8 +497,12 @@
       <c r="L6" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
+      <c r="M6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
@@ -946,7 +952,9 @@
       <c r="M20" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="N20" s="10"/>
+      <c r="N20" s="10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
